--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:43:20+00:00</t>
+    <t>2023-03-02T11:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:22:10+00:00</t>
+    <t>2023-03-02T13:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:04:14+00:00</t>
+    <t>2023-03-02T14:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T14:30:09+00:00</t>
+    <t>2023-03-02T14:36:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T14:36:04+00:00</t>
+    <t>2023-03-02T14:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:00:28+00:00</t>
+    <t>2023-03-06T11:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:01:00+00:00</t>
+    <t>2023-03-06T11:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:01:23+00:00</t>
+    <t>2023-03-06T11:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:02:53+00:00</t>
+    <t>2023-03-06T15:16:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:16:36+00:00</t>
+    <t>2023-03-17T16:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:29:09+00:00</t>
+    <t>2023-04-07T16:20:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
